--- a/app/config/tables/Avaliacao_qps/forms/Avaliacao_qps/Avaliacao_qps.xlsx
+++ b/app/config/tables/Avaliacao_qps/forms/Avaliacao_qps/Avaliacao_qps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\Avaliacao_qps\forms\Avaliacao_qps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\Avaliacao_qps\forms\Avaliacao_qps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE5A0E5-F3E3-496D-8342-046E5F6FACDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67476A6-19F9-4B96-97B3-6752CBA3B22E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="420">
   <si>
     <t>type</t>
   </si>
@@ -1312,6 +1312,12 @@
   </si>
   <si>
     <t>data('suportou')=='2' || data('suportou')=='3'</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -3965,7 +3971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A87" sqref="A87:C90"/>
     </sheetView>
   </sheetViews>
@@ -5736,10 +5742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5327D3-DBE3-4424-94B9-4BB439146718}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5778,6 +5784,20 @@
         <v>413</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/Avaliacao_qps/forms/Avaliacao_qps/Avaliacao_qps.xlsx
+++ b/app/config/tables/Avaliacao_qps/forms/Avaliacao_qps/Avaliacao_qps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\Avaliacao_qps\forms\Avaliacao_qps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67476A6-19F9-4B96-97B3-6752CBA3B22E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0062B03-AB4E-42B5-993E-36305AAB5AAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,31 +1293,31 @@
     <t>comment</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>data('relacao')==='3'</t>
+  </si>
+  <si>
+    <t>data('consent')=='2'</t>
+  </si>
+  <si>
+    <t>data('dob_or_age')=='1'</t>
+  </si>
+  <si>
+    <t>data('suportou')=='2' || data('suportou')=='3'</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
     <t>custom_date</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Makes the date widget DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>data('relacao')==='3'</t>
-  </si>
-  <si>
-    <t>data('consent')=='2'</t>
-  </si>
-  <si>
-    <t>data('dob_or_age')=='1'</t>
-  </si>
-  <si>
-    <t>data('suportou')=='2' || data('suportou')=='3'</t>
-  </si>
-  <si>
-    <t>adate</t>
-  </si>
-  <si>
-    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1939,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD52"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2045,7 +2045,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="9" t="s">
@@ -2203,7 +2203,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2265,7 +2265,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2315,7 +2315,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.5">
       <c r="D27" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5" t="s">
@@ -2547,7 +2547,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.5">
@@ -2647,7 +2647,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.5">
       <c r="D59" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>228</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.5">
       <c r="D83" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>245</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.5">
       <c r="D107" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>257</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.5">
       <c r="D131" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>269</v>
@@ -5599,7 +5599,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5633,7 +5633,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019070600</v>
+        <v>2019072600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -5745,7 +5745,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5772,30 +5772,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
         <v>411</v>
-      </c>
-      <c r="B2" t="s">
-        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" t="s">
         <v>418</v>
-      </c>
-      <c r="B3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
